--- a/src/main/resources/dataPool/DataR.xlsx
+++ b/src/main/resources/dataPool/DataR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14S\Documents\Java\Practicas Automatizacion\Saucedemo\src\main\resources\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Prueba con Java\Saucedemo\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16668C80-F3B7-45B3-9207-660166F4A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B67249-7580-4764-A68A-7816FEC9D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,44 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>testSuccessfulLogin</t>
+  </si>
+  <si>
+    <t>escenarioDePrueba</t>
+  </si>
+  <si>
+    <t>passwordH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,12 +429,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A5D024-3E8E-4488-8445-B0C6B1ACB2EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataPool/DataR.xlsx
+++ b/src/main/resources/dataPool/DataR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Prueba con Java\Saucedemo\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14S\Documents\Java\Practicas Automatizacion\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B67249-7580-4764-A68A-7816FEC9D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC0E98-87C8-48FC-8164-065DF08CD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -57,14 +57,14 @@
     <t>escenarioDePrueba</t>
   </si>
   <si>
-    <t>passwordH</t>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,17 +432,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/src/main/resources/dataPool/DataR.xlsx
+++ b/src/main/resources/dataPool/DataR.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14S\Documents\Java\Practicas Automatizacion\Saucedemo\src\main\resources\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14S\Documents\Java\Practicas Automatizacion\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16668C80-F3B7-45B3-9207-660166F4A347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC0E98-87C8-48FC-8164-065DF08CD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,39 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>testSuccessfulLogin</t>
+  </si>
+  <si>
+    <t>escenarioDePrueba</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +429,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A5D024-3E8E-4488-8445-B0C6B1ACB2EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataPool/DataR.xlsx
+++ b/src/main/resources/dataPool/DataR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T14S\Documents\Java\Practicas Automatizacion\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Prueba con Java\Saucedemo\Saucedemo-SwagLabs\src\main\resources\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC0E98-87C8-48FC-8164-065DF08CD28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB3122-4B07-4556-8303-091859600622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F91DA91-292A-49EF-B8E4-B48966E2AC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,17 +432,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
